--- a/data/trans_orig/P33b_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B705382-5650-4863-8810-5A80BA7E97F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{100B0A0D-C104-4F2C-BAE5-6344DE1364D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{84B11003-EC3F-41F6-BDB2-97944AAF1078}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20996682-7D25-4B81-8504-7259E0DD71DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población que se despierta demasiado temprano (de forma involuntaria) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>7,6%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
   <si>
     <t>15,99%</t>
@@ -86,16 +86,16 @@
     <t>11,41%</t>
   </si>
   <si>
-    <t>21,37%</t>
+    <t>21,72%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,16 +104,16 @@
     <t>92,4%</t>
   </si>
   <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>84,01%</t>
   </si>
   <si>
-    <t>78,63%</t>
+    <t>78,28%</t>
   </si>
   <si>
     <t>88,59%</t>
@@ -122,10 +122,10 @@
     <t>87,67%</t>
   </si>
   <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,268 +137,274 @@
     <t>16,52%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>24,31%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>18,53%</t>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
   </si>
   <si>
     <t>22,82%</t>
   </si>
   <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>77,18%</t>
   </si>
   <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>80,7%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2FFF05-69D9-4561-92F5-7AF4824F2E30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7F4277-CD04-4DEF-BC86-18095E608E9A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1408,7 +1414,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>211</v>
@@ -1417,13 +1423,13 @@
         <v>146783</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>308</v>
@@ -1432,13 +1438,13 @@
         <v>240835</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,13 +1459,13 @@
         <v>634720</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>836</v>
@@ -1468,13 +1474,13 @@
         <v>727588</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1415</v>
@@ -1483,13 +1489,13 @@
         <v>1362307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,7 +1551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1557,13 +1563,13 @@
         <v>184925</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>401</v>
@@ -1572,13 +1578,13 @@
         <v>268882</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>611</v>
@@ -1587,13 +1593,13 @@
         <v>453807</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,28 +1614,28 @@
         <v>780478</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>1160</v>
       </c>
       <c r="I17" s="7">
-        <v>878787</v>
+        <v>878788</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1956</v>
@@ -1638,13 +1644,13 @@
         <v>1659266</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,7 +1677,7 @@
         <v>1561</v>
       </c>
       <c r="I18" s="7">
-        <v>1147669</v>
+        <v>1147670</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1712,13 +1718,13 @@
         <v>534323</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1282</v>
@@ -1727,13 +1733,13 @@
         <v>817093</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>1877</v>
@@ -1742,13 +1748,13 @@
         <v>1351416</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,13 +1769,13 @@
         <v>2848855</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>4080</v>
@@ -1778,13 +1784,13 @@
         <v>2987709</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>6859</v>
@@ -1793,13 +1799,13 @@
         <v>5836564</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{100B0A0D-C104-4F2C-BAE5-6344DE1364D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98425654-A8A9-4C9C-8D00-BA3917B4CBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20996682-7D25-4B81-8504-7259E0DD71DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B16DC6A-013B-4121-ACE7-0FF9820D970D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>16,52%</t>
@@ -188,7 +188,7 @@
     <t>81,36%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>15,1%</t>
@@ -245,7 +245,7 @@
     <t>83,06%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>12,91%</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7F4277-CD04-4DEF-BC86-18095E608E9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD16FD9-509E-4559-97BB-2D91DE709BEE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98425654-A8A9-4C9C-8D00-BA3917B4CBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6628727-E2F6-45E2-BE8F-AE822C7E34CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B16DC6A-013B-4121-ACE7-0FF9820D970D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54A22F32-A8CD-4D9B-8392-9FC22772D3AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>Población que se despierta demasiado temprano (de forma involuntaria) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>7,6%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>15,99%</t>
@@ -86,16 +86,16 @@
     <t>11,41%</t>
   </si>
   <si>
-    <t>21,72%</t>
+    <t>21,37%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,16 +104,16 @@
     <t>92,4%</t>
   </si>
   <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>84,01%</t>
   </si>
   <si>
-    <t>78,28%</t>
+    <t>78,63%</t>
   </si>
   <si>
     <t>88,59%</t>
@@ -122,10 +122,10 @@
     <t>87,67%</t>
   </si>
   <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>16,52%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>24,31%</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
   </si>
   <si>
     <t>83,48%</t>
   </si>
   <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>75,69%</t>
   </si>
   <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>15,1%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
   </si>
   <si>
     <t>18,75%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>84,9%</t>
   </si>
   <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>77,68%</t>
   </si>
   <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>81,25%</t>
   </si>
   <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,49 @@
     <t>12,91%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>10,58%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>87,09%</t>
   </si>
   <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>89,42%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +302,103 @@
     <t>19,16%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
   </si>
   <si>
     <t>80,84%</t>
   </si>
   <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>78,52%</t>
   </si>
   <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD16FD9-509E-4559-97BB-2D91DE709BEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5901010-5FA1-48A9-AA07-3E71415E667C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1414,7 +1408,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>211</v>
@@ -1423,13 +1417,13 @@
         <v>146783</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>308</v>
@@ -1438,13 +1432,13 @@
         <v>240835</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,13 +1453,13 @@
         <v>634720</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>836</v>
@@ -1474,13 +1468,13 @@
         <v>727588</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1415</v>
@@ -1489,13 +1483,13 @@
         <v>1362307</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,7 +1545,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1563,13 +1557,13 @@
         <v>184925</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>401</v>
@@ -1578,13 +1572,13 @@
         <v>268882</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>611</v>
@@ -1593,13 +1587,13 @@
         <v>453807</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,28 +1608,28 @@
         <v>780478</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>1160</v>
       </c>
       <c r="I17" s="7">
-        <v>878788</v>
+        <v>878787</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1956</v>
@@ -1644,13 +1638,13 @@
         <v>1659266</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,7 +1671,7 @@
         <v>1561</v>
       </c>
       <c r="I18" s="7">
-        <v>1147670</v>
+        <v>1147669</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1718,13 +1712,13 @@
         <v>534323</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1282</v>
@@ -1733,13 +1727,13 @@
         <v>817093</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>1877</v>
@@ -1748,13 +1742,13 @@
         <v>1351416</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1763,13 @@
         <v>2848855</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>4080</v>
@@ -1784,13 +1778,13 @@
         <v>2987709</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6859</v>
@@ -1799,13 +1793,13 @@
         <v>5836564</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1855,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6628727-E2F6-45E2-BE8F-AE822C7E34CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ED891CC-DD75-4D08-9EEA-63FD45A9FC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54A22F32-A8CD-4D9B-8392-9FC22772D3AF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9E9B75CA-2DD0-4E06-A269-E685EA9D9DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Población que se despierta demasiado temprano (de forma involuntaria) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -65,340 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>84,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5901010-5FA1-48A9-AA07-3E71415E667C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707D2DCA-61E8-41AC-AF93-42563A42267D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -931,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D4" s="7">
-        <v>7666</v>
+        <v>93021</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -946,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="I4" s="7">
-        <v>20898</v>
+        <v>151598</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -961,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>416</v>
       </c>
       <c r="N4" s="7">
-        <v>28564</v>
+        <v>244619</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -982,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>106</v>
+        <v>612</v>
       </c>
       <c r="D5" s="7">
-        <v>93239</v>
+        <v>541391</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -997,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>201</v>
+        <v>939</v>
       </c>
       <c r="I5" s="7">
-        <v>109835</v>
+        <v>523772</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1012,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>307</v>
+        <v>1551</v>
       </c>
       <c r="N5" s="7">
-        <v>203074</v>
+        <v>1065163</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1033,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>634412</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1048,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1063,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>1309782</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1086,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="D7" s="7">
-        <v>90856</v>
+        <v>146071</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1101,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>257</v>
+        <v>371</v>
       </c>
       <c r="I7" s="7">
-        <v>144047</v>
+        <v>211555</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1116,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>363</v>
+        <v>542</v>
       </c>
       <c r="N7" s="7">
-        <v>234903</v>
+        <v>357626</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1137,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>506</v>
+        <v>792</v>
       </c>
       <c r="D8" s="7">
-        <v>458967</v>
+        <v>1045824</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1152,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>738</v>
+        <v>1145</v>
       </c>
       <c r="I8" s="7">
-        <v>448508</v>
+        <v>746551</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1167,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1244</v>
+        <v>1937</v>
       </c>
       <c r="N8" s="7">
-        <v>907475</v>
+        <v>1792376</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1188,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1191895</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1203,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1218,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2479</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2150002</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1241,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="D10" s="7">
-        <v>156824</v>
+        <v>87515</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1256,10 +1205,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>371</v>
+        <v>211</v>
       </c>
       <c r="I10" s="7">
-        <v>236483</v>
+        <v>132154</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1271,10 +1220,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>542</v>
+        <v>308</v>
       </c>
       <c r="N10" s="7">
-        <v>393308</v>
+        <v>219669</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1292,10 +1241,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>792</v>
+        <v>579</v>
       </c>
       <c r="D11" s="7">
-        <v>881452</v>
+        <v>617165</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1307,10 +1256,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1145</v>
+        <v>836</v>
       </c>
       <c r="I11" s="7">
-        <v>822991</v>
+        <v>801212</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1322,10 +1271,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1937</v>
+        <v>1415</v>
       </c>
       <c r="N11" s="7">
-        <v>1704442</v>
+        <v>1418377</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1343,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1038276</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1358,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1373,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2479</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2097750</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1396,10 +1345,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="D13" s="7">
-        <v>94052</v>
+        <v>173723</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1408,37 +1357,37 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>211</v>
+        <v>401</v>
       </c>
       <c r="I13" s="7">
-        <v>146783</v>
+        <v>239190</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>308</v>
+        <v>611</v>
       </c>
       <c r="N13" s="7">
-        <v>240835</v>
+        <v>412914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>579</v>
+        <v>796</v>
       </c>
       <c r="D14" s="7">
-        <v>634720</v>
+        <v>753108</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>836</v>
+        <v>1160</v>
       </c>
       <c r="I14" s="7">
-        <v>727588</v>
+        <v>853403</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1415</v>
+        <v>1956</v>
       </c>
       <c r="N14" s="7">
-        <v>1362307</v>
+        <v>1606510</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1513,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1561</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1092593</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1528,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2567</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2019424</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1545,31 +1494,31 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>210</v>
+        <v>595</v>
       </c>
       <c r="D16" s="7">
-        <v>184925</v>
+        <v>500330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
-        <v>401</v>
+        <v>1282</v>
       </c>
       <c r="I16" s="7">
-        <v>268882</v>
+        <v>734497</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -1581,10 +1530,10 @@
         <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>611</v>
+        <v>1877</v>
       </c>
       <c r="N16" s="7">
-        <v>453807</v>
+        <v>1234827</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>93</v>
@@ -1602,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>796</v>
+        <v>2779</v>
       </c>
       <c r="D17" s="7">
-        <v>780478</v>
+        <v>2957488</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>4080</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2924938</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>1160</v>
-      </c>
-      <c r="I17" s="7">
-        <v>878787</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6859</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5882426</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>1956</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1659266</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3457818</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1668,10 +1617,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1561</v>
+        <v>5362</v>
       </c>
       <c r="I18" s="7">
-        <v>1147669</v>
+        <v>3659435</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1683,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2567</v>
+        <v>8736</v>
       </c>
       <c r="N18" s="7">
-        <v>2113073</v>
+        <v>7117253</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1699,171 +1648,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>595</v>
-      </c>
-      <c r="D19" s="7">
-        <v>534323</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1282</v>
-      </c>
-      <c r="I19" s="7">
-        <v>817093</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1877</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1351416</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2779</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2848855</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4080</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2987709</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6859</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5836564</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383178</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5362</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3804802</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8736</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7187980</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
